--- a/output_deb.xlsx
+++ b/output_deb.xlsx
@@ -442,356 +442,324 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>@aaliaaaliya She has officiated many times in ODI cricket ICC World Cup League 2, Tri Series ODI in Florida being t… https://t.co/sKqsY0niPl</t>
+          <t>RT @BCCI: The ICC ODI Cricketer of the Year award goes to none other than the HITMAN for his stupendous show with 5 centuries in the ICC Cr…</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>47</v>
+        <v>864</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RT @JAMMULINKS: Lieutenant Governor, Girish Chandra Murmu today inaugurated the renovated Maulana Azad Cricket Stadium today. https://t.co/…</t>
+          <t>RT @steve_vladeck: Anyone who champions the rule of law rather than the rule of @realDonaldTrump will be portrayed by the Administration an…</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1149</v>
+        <v>715</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RT @TennisPodcast: We have reached our funding target for 2020! 🥳🥳🥳
-A massive THANK YOU to everyone who helped us get there. You’re all th…</t>
+          <t>RT @MollyJongFast: So perfectly on brand  https://t.co/swtqm8SyvQ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Excellent analysis here by David Graeber—the "curse of Centrism", its virulent role in politics recently, &amp;amp; its cul… https://t.co/uOtBqNpjr7</t>
+          <t>RT @AndrewFeinberg: NEW: Newly released documents show @RudyGiuliani knew he was working for @realDonaldTrump's personal benefit when he an…</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>776</v>
+        <v>1009</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RT @doctor_oxford: First corridors, now Portakabins. 
-Portakabin medicine: what a dismal symbol of this government’s trashing of our preci…</t>
+          <t>RT @johnsweeneyroar: I'm no sugar daddy says sugar daddy Tory MP https://t.co/lKmTBEunBv</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>999</v>
+        <v>918</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RT @SpliceToday: I honestly don’t expect philosophical precision from people who are busy being entertaining, usually a more productive act…</t>
+          <t>RT @Normanjam67: We live on a island that is 900 miles long and where the Railway was invented.
+This isn't Government, this is cronyism.…</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1018</v>
+        <v>731</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RT @EURACTIV: Today in The Capitals:
-🇪🇸 Spanish far-right sues European Parliament over Catalan MEPs
-🇩🇪 Berlin says no to new funding for…</t>
+          <t>RT @karen3678: Ukraine prosecutor offered information related to Biden in exchange for ambassador’s ouster, newly released materials show h…</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>56</v>
+        <v>1058</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RT @bbctms: Why we should enjoy the latest ride on the England rollercoaster. 
-Special report from @stephanshemilt on the ups &amp;amp; downs of f…</t>
+          <t>Hits, giggles as stars rally for cause -
+Williams, a seven-time Aust­ralian Open champion, combined with Djokovic i… https://t.co/56n42G7BLT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>61</v>
+        <v>972</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RT @aaliaaaliya: Wasim Khan is the best thing happened to Pakistan cricket board so far. Only remedy to move forward is that you bring top…</t>
+          <t>RT @TheDeshBhakt: When you mix religion &amp;amp; politics... it doesn’t end well. https://t.co/8Rhy45g8lc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>753</v>
+        <v>54</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RT @BreitbartNews: CLAIM: Sen. Bernie Sanders (I-VT) told Sen. Elizabeth Warren (D-MA) that a woman could not win the presidency.
-VERDICT:…</t>
+          <t>RT @IExpressSports: Twenty years ago this week, South Africa and England forfeited an innings to revive a dying Test and produce an enthral…</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>992</v>
+        <v>1143</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RT @amyklobuchar: Donald Trump thinks this is all about him. I think it’s about you— your health care, your schools, your lives and your fu…</t>
+          <t>Professional tennis players held a charity event where they raised 4 million dollars for Australian Fire relief las… https://t.co/GmOyEAimiE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1077</v>
+        <v>799</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RT @ExtinctionR: A Swiss court has ruled in favour of a dozen young climate activists from Lausanne Action Climat who occupied a Credit Sui…</t>
+          <t>Wikipedia back online in Turkey after almost three years https://t.co/J39E915hRu</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>954</v>
+        <v>1061</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>This will differentiate the two now. Not the same, similar but not the same. I’ve seen A holes on both sides. Like… https://t.co/IH0xlMa2bN</t>
+          <t>@royzkingin What's that thing that is use to play table Tennis pls??</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1005</v>
+        <v>775</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RT @nytimes: Breaking News: House Democrats shared new records supporting the Trump impeachment charges, adding pressure on Republicans to…</t>
+          <t>RT @dvillella: @realDonaldTrump This is the Hyde who contributed to your campaign. Why was he following Yovanovitch?
+https://t.co/I5VXSYbZ…</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>998</v>
+        <v>1098</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RT @markpalexander: Fishermen get thrown in the Brexit fryer by Leave. https://t.co/foIfapkpaS</t>
+          <t>RT @jimsciutto: Breaking: Russian PM Dmitry Medvedev announced that he and the entire Russian government is to resign in a televised statem…</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1119</v>
+        <v>959</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>@MattRacquet @ATPWTAMemes 21. My dad was really into tennis, one day I've started watching it too and got intereste… https://t.co/srThuVRB3Z</t>
+          <t>RT @BlatantLie: This is a call to arms, we should listen, we should act. 
+A new movement out of the ashes: What now for Remain? https://t.…</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1153</v>
+        <v>1082</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RT @klaudia_cs93: You know what is the absolute joke? That Roger is being dragged into EVERYTHING. Climate change? Blame Roger. Tennis look…</t>
+          <t>Greatest thing in life: Winning a #tennismatch. Second greatest thing in life: Losing a tennis match.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RT @UmarKhalidJNU: Brilliant, Amazing. 
-Kudos to @FahadTISS &amp;amp; all others in Mumbai for this protest.
-https://t.co/g8076mQglK</t>
+          <t>RT @BoldBrigade: Congratulating our Captain Virat Kohli for winning the 2019 Spirit of Cricket Award at #ICCAwards!
+#PlayBold #ViratKohli…</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Attention goiz 😍
+Follow him 😘
+@shalmeen24 🥰
+Nice tweets💕
+Cricket fan💞
+Lip tweets💖</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RT @citrusslut: and then on the third day.. tennis court by lorde came out</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RT @vikasbarthwal84: Group of my favorite tennis players https://t.co/4PwR10DIqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RT @DrEmmaLJohnston: Many thanks to our Science Minister @karenandrewsmp for moving Australia forward on climate: "Every second we spend di…</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Babe, remember that sticker I had... mind doing the honors... “Sure sweetie” thanks love. If you’re going to resort… https://t.co/25QsvrvW1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>When MS Dhoni Comes to Bat for India 😂😂😂
+#Cricket https://t.co/HOhPfBvYQ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>@DanCricket93 Matt Prior 🤢🤢 that man has a bigger ego than KP. Can't also remember him scoring runs in a tough situ… https://t.co/DPVBMrQ24r</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MYCA Magical Moments:
+September, 2011: Sham Chotoo of the Bowie Boys and Girls Club joins Maryland Youth Cricket a… https://t.co/zpbqXvK21S</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RT @MailSport: 'I thought you liked yellow on me but that's OK.'
+Grigor Dimitrov's shorts are the butt of the joke as pays a surprise visi…</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RT @Stop_The_EU: Tony Blair has been accused of “unacceptable” behaviour after it emerged he has been briefing Emmanuel Macron on how to fo…</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RT @BlaqsInCricket: Farewell JEAN-PAUL DUMINY. Wishing you all of the best in your next chapter. 
+You have serves cricket and your country…</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>#INDvAUS 
 Rishabh Pant was ruled out of India’s second ODI against Australia as the young wicket-keeper batsman ha… https://t.co/YSZmrKN15M</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>RT @Phil_Blackmon: These are the most electorally vulnerable Republican Senators.
-https://t.co/ZWsAvzgIbW</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Get this guy a tennis racquet!</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>RT @RepSylviaGarcia: Trump not only attempted to destroy Yovanovitch's career, but new evidence suggests she was surveilled while in her di…</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>RT @TheView: Pelosi to name impeachment managers, House to vote on sending articles to Senate. https://t.co/AXq1k5IRbn</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>RT @KatiePhang: 🚨 Who is Robert Hyde?
-“On May 16, 2019, an officer was dispatched to the Trump National Doral Miami to deal with a ‘male i…</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>The weaponization of woke PC ID politics that has made this website so God, Damn, Insufferable, is on full display… https://t.co/k6RRLcfChq</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>1053</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>RT @TombStoneWyatt: GOOD MORNING PATRIOTS 
-First tennis ball encounter 
-Life without Dogs would suck 
-Have Great Day 
-Animals are Great…</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>@InMyOwnBubble_ Yep nobody can rule Indian cricket like Dhoni.. Thala illama match paaka interest ey varala :(</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>It's Match Day! Come out and supports the 'Cats in their spring season opener! 
-P.S. there will be 🍕🍕🍕😎
-🆚 Illinoi… https://t.co/67EOpqG1NK</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>@JusticeTristan They give zero credit to our Founding Fathers. Of course they're partial, they're politicians. Shou… https://t.co/yQumlZlJ3q</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>1056</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Idk bout yall but I dreamed to be a professional tennis player bc of them 😍 https://t.co/mgBbxgTct6</t>
-        </is>
-      </c>
-    </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1046</v>
+        <v>75</v>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>RT @chrisdelia: Not only will I wear nike w adidas I will ALSO wear a puma hat AND a Reebok tennis skirt fuck all this shit.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>RT @jtd_gameon12: I absolutely laugh 😂🤣😂 when these two tells us all they’re going to create jobs. Neither guy, outside of politics, ever h…</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>1097</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>RT @oprahmagazine: Serena Williams Donates Tennis Prize Money to Australian Wildfire Relief https://t.co/1gB9EMgIEB</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B35" t="inlineStr">
         <is>
           <t>RT @toisports: #iccawards #Cricket
 @imVkohli named captain of @ICC's ODI and Test teams of the year 🏏
@@ -799,353 +767,52 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RT @softyoj: What Zombies like @ItsMutai dont know is @AbabuNamwamba is renowned professional, American trained attorney with international…</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RT @AnandWrites: .@rtraister's sage take on Sanders and Warren:
+Worrying women will face special brutality in politics doesn't make Sander…</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RT @hblatt20: "Let’s call President Trump’s newfound religion on climate what it is — political lip service." — @EDFaction President @jbonf…</t>
+        </is>
+      </c>
+    </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1133</v>
+        <v>1019</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RT @atptour: A few days ago, Deb was fighting the Australian bushfires. Today she’s playing doubles with her favourite tennis player. 🤗❤️…</t>
+          <t>Like I said, Gene Roddenberry could return from the grave and call out certain people’s bullshit, and they’d still… https://t.co/jyiGbxQB9M</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>845</v>
+        <v>933</v>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>RT @Herbert_L_Reed: CNN Fails to Ask a Single Immigration Question During Democrat Debate https://t.co/UG92rWBIDJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>RT @Kevin_Maguire: Johnson’s vanity is proving expensive for taxpayers https://t.co/a8byL6OaUh</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>RT @Tennis: Tennis Australia said last night's "Rally for Relief" helped raise nearly 5 million Australian dollars ($3.5 million), with @Ni…</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>and then on the third day.. tennis court by lorde came out</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>1057</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>@OneDayOnlycoza To live healthier as whole and to be a happier me. That includes @parkrunSA and also started playing tennis.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>1103</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ATP Auckland: Denis Shapovalov and John Isner win. Fognini and Khachanov.. https://t.co/I4KFsMHneK https://t.co/thToMbYbXE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>RT @trendingistng: "Politics is not emotional. Those saying @OfficialPDPNig is useless are just prepping for 3rd force" - @DemolaRewaju 
-ht…</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>RT @BombshellDAILY: NEW STALKING TEXTS UNLIKELY TO GET TO SENATE TRIAL
-Outlandish criminal behavior is expected, and likely ignored, by cor…</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>RT @rogermacginty: The book has fab chapters on the Indiana Jones complex; race, gender and positionality; safety and security; the politic…</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>RT @CajunBlueAZ1: I am one American citizen calling for the United States government to provide #MarieYovanovitch with 24 hour protection.…</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>1094</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>RT @ScottRegehr: Good on Canadian @BraydenSchnur for calling out Nadal and Federer for remaining silent on danger of playing in wildfire sm…</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>RT @theprovince: Medical timeouts and a collapse as Australian Open choked by bushfire smoke https://t.co/n7uYa45PwO https://t.co/abozSalSrp</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>1096</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>RT @guojeu: jeonghan and seokmin were planning to learn tennis after the tour ends 🥺🥺</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Hits, giggles as stars rally for cause -
-Williams, a seven-time Aust­ralian Open champion, combined with Djokovic i… https://t.co/56n42G7BLT</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>RT @JuddLegum: Hyde, who is now RUNNING FOR CONGRESS, donated thousands to Trump while failing to pay child support 
-https://t.co/uF2iZdfc…</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>RT @thekalinga: Confession of an ignorant science student (Thread)
-I am from science background
-Did my https://t.co/zceQaP3o6V
-Went to J…</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>RT @nayadaurpk: Maryam Nawaz's son Junaid Safdar has graduated from LSE. Talking to Naya Daur, he said that his degree was completed in ver…</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>RT @paulkrugman: Ezra Klein nails it. Sanders has a vision, but his notion of how to achieve it is Green Lanternism — somehow the sheer pow…</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>When MS Dhoni Comes to Bat for India 😂😂😂
-#Cricket https://t.co/HOhPfBvYQ1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>@hayashijames7 @barry_kent4 @LanceForman @nitramyad @jeremycorbyn A fairly neutral source. It purports to be repres… https://t.co/gOj5gUATqO</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>RT @sardesairajdeep: Tonight at 9.. as the Shaheen Baug protests enter their second month.. qs: what lies beneath a protest that shows no s…</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>SIX vs HUR Dream11 Tips To Win ALL Leagues
-Source: https://t.co/Ve3j2mZmCX
-#SIXvsHUR #Dream11 #Dream11Team</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>RT @BrexitHome: PMQs LIVE: Watch out Jeremy! Lame duck Corbyn set for Commons MAULING - Boris to let rip https://t.co/GwjSNG4gvO</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>RT @OneJacobKelly: UHURU KENYATTA ~ I support BBI, its unfortunate @WilliamsRuto Feels left out, but am not 4 or Against Anyone, am 4 the 4…</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Like I said, Gene Roddenberry could return from the grave and call out certain people’s bullshit, and they’d still… https://t.co/jyiGbxQB9M</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>RT @dallasnews: Texas Gov. Greg Abbott has big political goals – and more cash to back them up https://t.co/i0Rm0oBV3G</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>RT @michaeljohns: There is no place for this sort of violent rhetoric in American #politics. If the @DNC is not treating @BernieSanders fai…</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>How Impeachment Will Force Senators Off the Iowa Campaign Trail https://t.co/TwYVSZxQCL @NYT @manianca</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>There will be a meeting on Friday, January 17th right after school for any girls 7th-12th grade who are interested… https://t.co/OpNC5f88MH</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>RT @JordanSchachtel: Let me just say I have my doubts about this narrative.
-https://t.co/J8BrPpgyYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Andrew Fenty was named NCAA Rookie of the Year after his eye-popping freshman campaign. Now, in year two, Fenty is… https://t.co/smlMYQFLGU</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>RT @PeterStefanovi2: Trump aide warns UK to dump Iran nuclear pact to get a better Brexit trade deal
-Welcome to Boris Johnson’s “golden ag…</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B69" t="inlineStr">
         <is>
           <t>RT @arikring: YES WE CAN TOO!
 6 Yrs Before the Deadline #Scotland Meets Emission Targets
@@ -1154,557 +821,879 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RT @DrDenaGrayson: 🚨Nothing to see here: @GOP Congressional candidate Robert Hyde allegedly conspired with Rudy’s #Ukrainegate henchman Lev…</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RT @ICCLive: It's all over! Australia Under 19s win by 9 wickets https://t.co/08XMHMdUxR #AUSvCAN #U19CWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RT @CharlesPPierce: That this operation existed is now beyond all question. That the president* himself was involved in it is moving beyond…</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RT @bopinion: Americans got some fantastic health news last week: U.S. cancer deaths are plunging at the fastest rate ever https://t.co/qdy…</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RT @drakepresident: Your @DrakeUniversity is the PLACE FOR POLITICS! https://t.co/6ufTIWXEWL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>@TelvinGriffin I’m hip to plenty politics sir. Just because I’m not a part of the dark web like you doesn’t mean I… https://t.co/PRvPg7MqDy</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RT @_blusummers: Mothers 4 Housing and the Legacy of Black Anti-Growth Politics  https://t.co/UfTCAfBpOV</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RT @nycsouthpaw: The lede of WaPo’s story gets at something I think is pretty key. The Parnas texts released last night suggest that the re…</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RT @ChrisEvansForum: New article
+https://t.co/J6Gpd0a6vR https://t.co/KJY0OaDwno</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>@Shelikes_juice nooo chats are proofffssss 😁😁😁</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RT @ManiTweets14: ICC Test Player oF the Year :
+2004 R Dravid
+05 J Kallis
+06 R Ponting
+07 M YousuF
+08 D Steyn
+09 G Ghambir
+2010 V Sehwag
+1…</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RT @BCCI: #TeamIndia Captain Virat Kohli is the winner of the 2019 ICC Spirit of Cricket Award for his heart warming gesture to ask the fan…</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RT @catturd2: Any word from Bernie Sanders about his violent, fascist high-ranking campaign worker who was caught on tape threatening to bu…</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>what's the biggest circus: russian politics or this comment section? 🤥 https://t.co/b2wum1ZcvL</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>@Naoma_Khan_ @PlatinumJab Haha current Hindu politics that Bjp leaders isn't very suitable for our larger Community… https://t.co/dudANCJzrm</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Babar Azam only Pakistani included in the ICC ODI team of the year. If we had more test like other nations, Babar s… https://t.co/uRHi87uEsf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RT @maddow: "There is no indication that embassy employees were warned of a credible threat, and the State Department did not respond to qu…</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>hear ye, hear ye: @npfandos's breakdown of the impeachment trial process is required reading this morning... https://t.co/NrUM7cIHuO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>"PBS Frontline" Documentary: An Investigation Into America's Increasingly Bitter, Divided And Toxic Politics  https://t.co/FuLwn1LNqC</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>⭐ The New York Times named “Your Ad Could Go Here” by @o_zabuzhko among the most anticipated books of 2020:… https://t.co/iRtomFEi8b</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>@ESPNAusNZ @girlsreallyrule You’re covering.....a tennis match where a player is coughing from the fire smoke that… https://t.co/VXzfAOogKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>QUEEN!!!!! earrings, hair, politics, all of it!
+also, fuck zionists. https://t.co/xY7mbEGsOV</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Zimbabwe Cricket 🤦🏾‍♂️ https://t.co/372BlceKuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RT @rogermacginty: The book has fab chapters on the Indiana Jones complex; race, gender and positionality; safety and security; the politic…</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>@HOLLYJISOO Why did you bring a cricket...</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>@ESPNcricinfo @miller_cricket has to be Botham, back in the days when Cricket was Cricket</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RT @amyklobuchar: Donald Trump thinks this is all about him. I think it’s about you— your health care, your schools, your lives and your fu…</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RT @TennisPodcast: We have reached our funding target for 2020! 🥳🥳🥳
+A massive THANK YOU to everyone who helped us get there. You’re all th…</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RT @neal_katyal: Good. Let's have a real trial now. The only kind known to America (with witnesses and documents).
+ https://t.co/s9VQdw2Syr</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>@rfhyde1 the only seat you deserve...one at your local dive bar. There are enough greedy scumbags in politics and y… https://t.co/TBFELvHX1b</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Joe Biden says he’d consider Kamala Harris ‘for anything’ she wants, including VP https://t.co/BR8MZ3yZU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>The CCAC has a wide variety of amenities! From gymnastics, to tennis and pickleball, to lap swim and SO MUCH MORE.… https://t.co/avs7hKRd7p</t>
+        </is>
+      </c>
+    </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>71</v>
+        <v>1121</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RT @cricketcomau: The @RenegadesBBL set the @ThunderBBL 173 to win in Canberra. 
-Scorecard: https://t.co/ABTbqE2nyb #BBL09 https://t.co/Xe…</t>
+          <t>Six of the highest achieving para-athletes of 2019 make up the Nominees for the Laureus World Sportsperson of the Y… https://t.co/qD1F9El6R6</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>903</v>
+        <v>105</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RT @nmsaints87124: CNN Fails to Ask a Single Immigration Question During Democrat Debate  https://t.co/xh1E4ow14u</t>
+          <t>#WestIndiesvsIreland, 1st T20I 2020 Live Streaming Online: Get Free Telecast Details of #WIvsIRE on TV With Match T… https://t.co/ECfCnANXqA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>994</v>
+        <v>856</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RT @Abi_Maila: Hi, I'm Abi, a 3rd and final year Politics, Media &amp;amp; Film student from Ha-Modjadji in Limpopo. I won't be allowed to register…</t>
+          <t>RT @RedHerringAlert: VA Dems Drop AR-15 Confiscation After 1000s of NRA Members Show https://t.co/kVgMrYgmh7 via @BreitbartNews</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Chapri Nibbas after hitting sizes in a Gully Cricket tournament. https://t.co/cpQeyA5ckT</t>
+          <t>Not me but the thugs in second form used to play a serious cricket. So these guys decided we’re going to play befor… https://t.co/drFKuuRZoH</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>965</v>
+        <v>878</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Former MP Keith Vaz launches surprise Labour comeback, voted in as local party chair in Leicester East https://t.co/EBGDERwCPl</t>
+          <t>RT @trendingistng: "Politics is not emotional. Those saying @OfficialPDPNig is useless are just prepping for 3rd force" - @DemolaRewaju 
+ht…</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>782</v>
+        <v>957</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RT @cnni: Former US Ambassador to Ukraine Marie Yovanovitch has called for an investigation into the "disturbing" notion that she was under…</t>
+          <t>This is my problem with politics online and in general instead of dealing with facts we are looking for a debate sl… https://t.co/UB90wCsBd8</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45</v>
+        <v>944</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>@IsbUnited Something cricket related please🙏</t>
+          <t>RT @CNNBusiness: Millennials are on track to be the first generation not to exceed their parents in terms of job status or income, studies…</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>966</v>
+        <v>42</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ukraine prosecutor offered information related to Biden in exchange for ambassador’s ouster, newly released materia… https://t.co/zRhzMyZZC7</t>
+          <t>Good News 
+Multan Cricket Stadium renovation work is complete  Multan is ready to host 3 #PSL5 matches 😇😇 #PSL5 https://t.co/EH78tNWBxX</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>105</v>
+        <v>1100</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>#WestIndiesvsIreland, 1st T20I 2020 Live Streaming Online: Get Free Telecast Details of #WIvsIRE on TV With Match T… https://t.co/ECfCnANXqA</t>
+          <t>RT @chrisdelia: Not only will I wear nike w adidas I will ALSO wear a puma hat AND a Reebok tennis skirt fuck all this shit. https://t.co/n…</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RT @kristina_wong: Pfc. Villalon was just two years old on 9/11.
-Flags to Fly at Half-Staff for Two Soldiers Killed in Afghanistan https:/…</t>
+          <t>RT @BreitbartNews: CLAIM: Sen. Bernie Sanders (I-VT) told Sen. Elizabeth Warren (D-MA) that a woman could not win the presidency.
+VERDICT:…</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT @glennkirschner2: Please see this informative piece by @PeteWilliamsNBC on how Chief Justice Roberts might preside over the Trump impeac…</t>
+          <t>RT @TheQuint: EDITOR'S NOTE: On 13 January, The Quint published a video titled ''How to Prove I’m Indian?’ Muslim Driver Breaks Down Over N…</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>752</v>
+        <v>882</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT @kylegriffin1: Based on what is known so far, Trump's 'four embassies' statement was at best an unfounded theory &amp;amp; at worst a falsehood.…</t>
+          <t>@nprpolitics https://t.co/B56leYIygl 
+The overwhelming evidence of the lying, cheating, criminal activities of Con… https://t.co/WhKWWgRwbi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>811</v>
+        <v>962</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RT @proustmalone: @shaunking @Peter_Madonna @BernieSanders Dude, Elizabeth Warren is still a Republican. Neoliberalism ratcheted the Overto…</t>
+          <t>Excellent analysis here by David Graeber—the "curse of Centrism", its virulent role in politics recently, &amp;amp; its cul… https://t.co/uOtBqNpjr7</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>58</v>
+        <v>1152</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Resign from Test Cricket @AsicsCricket</t>
+          <t>@TheBorisBecker @NickKyrgios @rogerfederer @RafaelNadal @DjokerNole @serenawilliams @CaroWozniacki @StefTsitsipas… https://t.co/wrk4VUpQ0K</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>138</v>
+        <v>1156</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RT @AsharJawad: Kane Williamson deserved the Spirit of Cricket Award for the grace he showed in accepting the World Cup final result, despi…</t>
+          <t>Brb just making my entrance into a tennis stan twitter</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>No D/N games? No games at RPSC?
-Do @OfficialSLC think they can develop cricket like this? https://t.co/AvMEklR52v</t>
+          <t>@wonmwou It's a cricket sound</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1006</v>
+        <v>919</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RT @hblatt20: "Let’s call President Trump’s newfound religion on climate what it is — political lip service." — @EDFaction President @jbonf…</t>
+          <t>RT @donmoyn: This sort of normalization works to Trump’s advantage for the majority of voters who are not closely observing politics. Via @…</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>955</v>
+        <v>816</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RT @arifayyub: @tabassum_b @INCIndia @INCMaharashtra These are the political gundas that abound in Mumbai politics across all parties. At t…</t>
+          <t>To change the dirty game of politics- work with people from every state to improve education, healthcare, environme… https://t.co/okjBea66y9</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>732</v>
+        <v>69</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RT @ItoniLl: Pelosi warns: 'Civilization as we know it today is at stake' in 2020 election - CNNPolitics .. In another words Nancy Pelosi i…</t>
+          <t>Muhammad Irfan(@M_IrfanOfficial) in Bangladesh Premiere League Today.
+4-overs
+16-Runs
+2-Wickets
+17-Dots
+4.0-Economy
+#BPL #Cricket</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>33</v>
+        <v>786</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RT @HTSportsNews: #INDvAUS | Thoughts on this hairstyle, @imVkohli? 
-https://t.co/KeQttktU3m</t>
+          <t>RT @DFBHarvard: Ain't it a pleasure watching Karma at work?
+https://t.co/Agegzv1TJq</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>835</v>
+        <v>710</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RT @AveriHarper: Endorsements from progressive groups are adding up for @BernieSanders ahead of the IA caucus. Read my latest: https://t.co…</t>
+          <t>RT @calgaryherald: Human Rights Watch report blasts China as its chief barred from Hong Kong https://t.co/sLkS8pB1Oy https://t.co/DL3FPP2tH8</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1049</v>
+        <v>824</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RT @citrusslut: and then on the third day.. tennis court by lorde came out</t>
+          <t>@freespeech318 I should  imagine  there are plenty  like you. It's just a shame hardly anyone took notice of him al… https://t.co/KTQD3mr0Rc</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>905</v>
+        <v>742</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RT @Wise_Jones: To say a debate about politics is boring is all the proof you need that America is such a dumb place it seeks entertainment…</t>
+          <t>RT @mcollinsNEWS: Trump, Chinese vice premier to sign 'Phase One' trade deal but details still a mystery https://t.co/s6eOq6NvAd via @USATO…</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>37</v>
+        <v>1055</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RT @ManiTweets14: #MarcusStoinis 🔥
-#BBL2018/19 :
-Mat 13
-Runs 533
-Avg 53.30
-SR 130.63
-#BBL2019/20 :
-Mat 10
-Runs 517
-Avg 86.16
-SR 133.93
-M…</t>
+          <t>RT @Woking_NewsMail: A Pirbright man who took up #RealTennis after being diagnosed with #leukaemia has completed an epic challenge, playing…</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>777</v>
+        <v>942</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>@bennylope One way is by electing people who already agree to work towards the policies you want. The other way is… https://t.co/GqyhFTluN9</t>
+          <t>RT @Elise_Jordan: The Best People: Robert Hyde, the guy who plotted a hit on a U.S. Ambassador he referred to as "this bitch," is also the…</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>21</v>
+        <v>791</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RT @ICC: A lovely moment in a special year of cricket.
-@imVkohli discusses the importance of playing cricket in the right way 👏 
-#ICCAwar…</t>
+          <t>12% of Bernie supporters defected to Trump in 2016. And then there are the many voters who dropped out in the gener… https://t.co/ebMCuM4UDi</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>853</v>
+        <v>1148</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RT @RWPUSA: As usual the stories keep changing.
-Barr and Pompeo shift justification for Iran strike from 'imminent' threat to deterrence.…</t>
+          <t>RT @sunriseon7: Tennis champion @RafaelNadal showed off his rarely-seen relaxed side in this sit down with @MarkBeretta, discussing everyth…</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>7</v>
+        <v>936</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RT @GabbbarSingh: I'm surprised a lot of people haven't seen the greatest documentary ever made about Cricket. Please undo this and watch '…</t>
+          <t>RT @PeterStefanovi2: Trump aide warns UK to dump Iran nuclear pact to get a better Brexit trade deal
+Welcome to Boris Johnson’s “golden ag…</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>924</v>
+        <v>981</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RT @dma4him: #PardonGenFlynnNow #IStandWithGenFlynn
-#FreeFlynnNow #WWG1WGA
-Michael Flynn moves to withdraw guilty plea, citing 'bad faith'…</t>
+          <t>@kimalex34879547 @ClaireMTPearson @oflynnsocial @DPJHodges Hi Kim, what are your thoughts on this:
+https://t.co/gzk2pEWOxq</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>861</v>
+        <v>1088</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RT @SooksThe: Absolutely unbelievable!
-Comparing Brexit to 1930's Germany and saying Remainers feelings are "akin to bereavement and a gri…</t>
+          <t>Get this guy a tennis racquet!</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Most runs by a player in Twenty20 cricket:
+          <t>RT @ICCLive: It's all over! United Arab Emirates Under 19s win by 253 runs https://t.co/G4sIqGGZb8 #JPNvUAE #U19CWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>@zimrobbie @Lewinzoe @ryanburl3 @ZimCricketv @Legslipp this is why I do not follow Zim cricket.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Would LOVE to see this info!
+"The report stated that Hyde cited “a variety of different names, contacts and provide… https://t.co/GsxZW3CoWv</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RT @scontorno: If you know anything about Florida lawmakers playing a game where members got "points" for sleeping with aides, interns, lob…</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>@zimrobbie @Lewinzoe @ryanburl3 @ZimCricketv It's really tough to watch as people play with players' livelihood. As… https://t.co/xWxFy8aZWg</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Former MP Keith Vaz launches surprise Labour comeback, voted in as local party chair in Leicester East https://t.co/EBGDERwCPl</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RT @ICCLive: It's all over! New Zealand Under 19s win by 4 wickets https://t.co/6dq5u5z1fR #NZvBAN #U19CWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RT @VivSaintLaurent: Featurism isn’t a new word or concept and it ties in with colourism and hair politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RT @uktostayeu: #Brexit: UK public wants to remain in EU, new poll finds weeks before withdrawal date
+Remain backed by highly symbolic 52-…</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>RT @ItoniLl: Pelosi warns: 'Civilization as we know it today is at stake' in 2020 election - CNNPolitics .. In another words Nancy Pelosi i…</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>RT @bbctms: In @bbl @RenegadesBBL set 172/4 as the holders search for a first win of the season. 
+But can @AlexHales1 &amp;amp; @ThunderBBL chase…</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>RT @Ilhan: This is explicit anti-Muslim bigotry and it is being virtually ignored.
+Every day, Islamophobia is normalized in our politics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>RT @kylegriffin1: Trump is unnerved by Mike Bloomberg's campaign spending and his suggestion he might spend $1 billion of his own fortune o…</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>RT @WIRED: Evans isn't naive. He knows A Starting Point probably won’t save America. But it could piece together some of what’s been broken…</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>RT @BelkissObadia: 🚨🚨🚨BREAKING🚨🚨🚨
+George Nader, Trump Associate and Mueller Investigation Witness, Pleads Guilty to Child Sex Crimes. @rea…</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>@BoiseFryCo &amp;amp; Idaho company Orchestra Provisions team up on new fry combo with "cricket" seasonings. https://t.co/GXrt0KRicD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Accept verdict of the Supreme Court in Imo State, Atiku advises PDP
+https://t.co/qkJLrhtP6T https://t.co/9SZBjq0dZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RT @nancylevine: @gregolear Trump’s words about Marie L. Yovanovitch were ominous:
+“She’s going to go through some things.”
+https://t.co/I…</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>RT @SampathStats: Most runs by a player in Twenty20 cricket:
 13296 - CHRIS GAYLE
 9972 - CHRIS GAYLE's boundary runs
-9935 - Kieron Po… https://t.co/ZE1FkmgypP</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>BBC Politics has turned into the sort of woman's magazine you find in hairdressers. https://t.co/Qz5nDBmPVa</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>RT @markwatt123: One of the nicest guys in cricket, massively deserved and a great leader of our team💪🏼 Many more years of blasting them to…</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>@johnlegend Your ignorance of real world politics is nauseating.
-Warren is a fraud https://t.co/BPstZAksu0</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>RT @ImmoralishMe: I remembered this from November.
-If true, we still have some tapes to hear or see.
-https://t.co/415eSRorfc</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Interesting development: Quebec Greens leader Alex Tyrrell to join federal leadership race as an 'eco-socialist' ca… https://t.co/ykChbAoukZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>QUEEN!!!!! earrings, hair, politics, all of it!
-also, fuck zionists. https://t.co/xY7mbEGsOV</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>RT @ellymelly: A friend of mine has discovered 2020's pick-up line of choice (do NOT use it)!
-"How's the climate in your local area? Is it…</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>RT @CricketFanatik: Star #Indian cricketers #ViratKohli and #RohitSharma have won big at the #ICCAwards for the year 2019, which were annou…</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>RT @RedTRaccoon: Russian government and Prime Minister Medvedev resign.
-Russian Prime Minister Dmitry Medvedev said on Wednesday that the…</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>RT @NotShemmie: At least Momentum are being honest about their thoughts on democracy.
-"Momentum sends members a Labour leadership ballot w…</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>@MahuaMoitra @timesofindia West Bengal is a failed State. Failing on all economic, health and educational metrics.… https://t.co/pp0nFzRzRk</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>@PurpleRain713 @MichaelJStern1 @PeteButtigieg @JoyAnnReid @michaelharriot @DrJasonJohnson Also no state charges fil… https://t.co/L96kCqfPxi</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>1078</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>RT @HHMU_Banksia: @lynnpotter11 @mikecoulson48 @redfeatherheat1 @psypher5 @Zoompad @WoodwarddianneJ @james00000001 @2018Tsalagi @chiefstone…</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>RT @TennisChannel: Tennis could not ask for better representatives to come together and support such an important cause, @NickKyrgios and @…</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>RT @HillaryClinton: Russians appear to be re-running their 2016 hacking playbook, once again to benefit Donald Trump. 
-Will the media play…</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>RT @ChrisEvansForum: New article
-https://t.co/J6Gpd0a6vR https://t.co/KJY0OaDwno</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>RT @dizzy_cricket: @TrishSuter @d_ast777 @HLNida2 @Kristal081670 @AlynaLochlan @JeanGrant05 @peggy_jaeger @donnavstone @njadegray1 @DeBlois…</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>@TheBorisBecker @NickKyrgios @rogerfederer @RafaelNadal @DjokerNole @serenawilliams @CaroWozniacki @StefTsitsipas… https://t.co/wrk4VUpQ0K</t>
+9935 - Kieron Pollard…</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>859</v>
+        <v>124</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RT @MSNBC: Michael Flynn files to withdraw his guilty plea. https://t.co/Vgggbq8Y4Z</t>
+          <t>RT @FCC1860: The club is delighted to advise that Lyle Robertson has been called up to the Cricket Scotland U19 World Cup in South Africa.…</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>19</v>
+        <v>859</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RT @JMehta65: Good..Before World Series Championship, there was no day and night cricket..
-For day and night cricket, electricity is consum…</t>
+          <t>RT @MSNBC: Michael Flynn files to withdraw his guilty plea. https://t.co/Vgggbq8Y4Z</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>1156</v>
+        <v>1096</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Brb just making my entrance into a tennis stan twitter</t>
+          <t>RT @guojeu: jeonghan and seokmin were planning to learn tennis after the tour ends 🥺🥺</t>
         </is>
       </c>
     </row>
